--- a/teaching/traditional_assets/database/data/british_virgin_islands/british_virgin_islands_metals_mining.xlsx
+++ b/teaching/traditional_assets/database/data/british_virgin_islands/british_virgin_islands_metals_mining.xlsx
@@ -590,23 +590,8 @@
           <t>Metals &amp; Mining</t>
         </is>
       </c>
-      <c r="G2">
-        <v>-2904</v>
-      </c>
-      <c r="H2">
-        <v>-2904</v>
-      </c>
-      <c r="I2">
-        <v>-6585</v>
-      </c>
-      <c r="J2">
-        <v>-6585</v>
-      </c>
       <c r="K2">
-        <v>-31.02</v>
-      </c>
-      <c r="L2">
-        <v>-15510</v>
+        <v>-25.278</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,73 +615,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>11.337</v>
+        <v>8.488</v>
       </c>
       <c r="V2">
-        <v>0.1032231630701994</v>
+        <v>0.02310288513881328</v>
       </c>
       <c r="W2">
-        <v>-0.2474926253687316</v>
+        <v>-0.09807692307692308</v>
       </c>
       <c r="X2">
-        <v>0.1353927614978646</v>
+        <v>0.07737508688094547</v>
       </c>
       <c r="Y2">
-        <v>-0.3828853868665962</v>
+        <v>-0.1754520099578685</v>
       </c>
       <c r="Z2">
-        <v>2.148343090391536e-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>-0.09806502566802684</v>
+        <v>-0.08111640781177917</v>
       </c>
       <c r="AB2">
-        <v>0.1353927614978646</v>
+        <v>0.07664805266163008</v>
       </c>
       <c r="AC2">
-        <v>-0.2334577871658914</v>
+        <v>-0.1569858619190282</v>
       </c>
       <c r="AD2">
-        <v>3.211</v>
+        <v>6.169</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>3.211</v>
+        <v>6.169</v>
       </c>
       <c r="AG2">
-        <v>-8.125999999999999</v>
+        <v>-2.318999999999999</v>
       </c>
       <c r="AH2">
-        <v>0.02840562273865235</v>
+        <v>0.01651368288053881</v>
       </c>
       <c r="AI2">
-        <v>0.03085986679609038</v>
+        <v>0.05834176604658641</v>
       </c>
       <c r="AJ2">
-        <v>-0.07989852906473688</v>
+        <v>-0.006352015032280505</v>
       </c>
       <c r="AK2">
-        <v>-0.08764587872381732</v>
+        <v>-0.02384551315667704</v>
       </c>
       <c r="AL2">
-        <v>0.529</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="AM2">
-        <v>0.524</v>
+        <v>0.914</v>
       </c>
       <c r="AN2">
-        <v>-0.3738067520372526</v>
+        <v>-0.9382509505703422</v>
       </c>
       <c r="AO2">
-        <v>-24.89603024574669</v>
+        <v>-8.126203208556149</v>
       </c>
       <c r="AP2">
-        <v>0.9459837019790454</v>
+        <v>0.352699619771863</v>
       </c>
       <c r="AQ2">
-        <v>-25.13358778625954</v>
+        <v>-8.312910284463895</v>
       </c>
     </row>
     <row r="3">
@@ -707,7 +692,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kading Companies, S.A. (OTCPK:KDNG)</t>
+          <t>Talon Metals Corp. (TSX:TLO)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -716,7 +701,7 @@
         </is>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-0.838</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -724,41 +709,47 @@
       <c r="N3">
         <v>-0</v>
       </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
       <c r="P3">
         <v>-0</v>
       </c>
       <c r="Q3">
         <v>-0</v>
       </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.001</v>
+        <v>5.36</v>
       </c>
       <c r="V3">
-        <v>0.0002136752136752137</v>
+        <v>0.02245496439044826</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>-0.02004784688995215</v>
       </c>
       <c r="X3">
-        <v>0.1353927614978646</v>
+        <v>0.07586945410724899</v>
       </c>
       <c r="Y3">
-        <v>-0.1353927614978646</v>
+        <v>-0.09591730099720114</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-0.01605600238308014</v>
       </c>
       <c r="AB3">
-        <v>0.1353927614978646</v>
+        <v>0.07586945410724899</v>
       </c>
       <c r="AC3">
-        <v>-0.1353927614978646</v>
+        <v>-0.09192545649032913</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -770,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.001</v>
+        <v>-5.36</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -779,16 +770,25 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.0002137208805300278</v>
+        <v>-0.02297077226364961</v>
       </c>
       <c r="AK3">
-        <v>-0.0004952947003467063</v>
+        <v>-0.123959296947271</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-0.02</v>
+      </c>
+      <c r="AN3">
+        <v>-0</v>
+      </c>
+      <c r="AP3">
+        <v>10.20952380952381</v>
+      </c>
+      <c r="AQ3">
+        <v>26.95</v>
       </c>
     </row>
     <row r="4">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="K4">
-        <v>-8.390000000000001</v>
+        <v>-28.8</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -832,73 +832,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.6</v>
+        <v>0.21</v>
       </c>
       <c r="V4">
-        <v>0.05351170568561874</v>
+        <v>0.004046242774566474</v>
       </c>
       <c r="W4">
-        <v>-0.2474926253687316</v>
+        <v>-0.7559055118110236</v>
       </c>
       <c r="X4">
-        <v>0.1426695088522754</v>
+        <v>0.08010757595663927</v>
       </c>
       <c r="Y4">
-        <v>-0.390162134221007</v>
+        <v>-0.8360130877676629</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>-0.07563223824155046</v>
+        <v>-0.06519507186858316</v>
       </c>
       <c r="AB4">
-        <v>0.1371851111244274</v>
+        <v>0.07771328146294879</v>
       </c>
       <c r="AC4">
-        <v>-0.2128173493659779</v>
+        <v>-0.142908353331532</v>
       </c>
       <c r="AD4">
-        <v>2.46</v>
+        <v>3.98</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>2.46</v>
+        <v>3.98</v>
       </c>
       <c r="AG4">
-        <v>0.8599999999999999</v>
+        <v>3.77</v>
       </c>
       <c r="AH4">
-        <v>0.07601977750309023</v>
+        <v>0.07122405153901218</v>
       </c>
       <c r="AI4">
-        <v>0.0593342981186686</v>
+        <v>0.3601809954751131</v>
       </c>
       <c r="AJ4">
-        <v>0.02795838751625487</v>
+        <v>0.06772049577869589</v>
       </c>
       <c r="AK4">
-        <v>0.02157551430005017</v>
+        <v>0.3477859778597786</v>
       </c>
       <c r="AL4">
-        <v>0.414</v>
+        <v>0.377</v>
       </c>
       <c r="AM4">
-        <v>0.414</v>
+        <v>0.377</v>
       </c>
       <c r="AN4">
-        <v>-0.9879518072289155</v>
+        <v>-1.604838709677419</v>
       </c>
       <c r="AO4">
-        <v>-6.183574879227054</v>
+        <v>-6.737400530503979</v>
       </c>
       <c r="AP4">
-        <v>-0.3453815261044176</v>
+        <v>-1.520161290322581</v>
       </c>
       <c r="AQ4">
-        <v>-6.183574879227054</v>
+        <v>-6.737400530503979</v>
       </c>
     </row>
     <row r="5">
@@ -909,7 +909,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Talon Metals Corp. (TSX:TLO)</t>
+          <t>Amur Minerals Corporation (AIM:AMC)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="K5">
-        <v>-5.71</v>
+        <v>-2.53</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -942,31 +942,31 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>8.23</v>
+        <v>0.831</v>
       </c>
       <c r="V5">
-        <v>0.1499089253187614</v>
+        <v>0.02760797342192691</v>
       </c>
       <c r="W5">
-        <v>-0.742522756827048</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="X5">
-        <v>0.1353927614978646</v>
+        <v>0.07586945410724899</v>
       </c>
       <c r="Y5">
-        <v>-0.8779155183249127</v>
+        <v>-0.175869454107249</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>-0.09806502566802684</v>
+        <v>-0.08111640781177917</v>
       </c>
       <c r="AB5">
-        <v>0.1353927614978646</v>
+        <v>0.07586945410724899</v>
       </c>
       <c r="AC5">
-        <v>-0.2334577871658914</v>
+        <v>-0.1569858619190282</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>-8.23</v>
+        <v>-0.831</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -987,28 +987,22 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>-0.1763445468180844</v>
+        <v>-0.02839181386449827</v>
       </c>
       <c r="AK5">
-        <v>-0.2451593684837653</v>
+        <v>-0.03438288716951467</v>
       </c>
       <c r="AL5">
-        <v>0.06900000000000001</v>
+        <v>0.462</v>
       </c>
       <c r="AM5">
-        <v>0.064</v>
-      </c>
-      <c r="AN5">
-        <v>-0</v>
+        <v>0.461</v>
       </c>
       <c r="AO5">
-        <v>-43.18840579710145</v>
-      </c>
-      <c r="AP5">
-        <v>2.771043771043771</v>
+        <v>-4.567099567099566</v>
       </c>
       <c r="AQ5">
-        <v>-46.5625</v>
+        <v>-4.57700650759219</v>
       </c>
     </row>
     <row r="6">
@@ -1019,7 +1013,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Phoenix Copper Limited (AIM:PXC)</t>
+          <t>Premier African Minerals Limited (AIM:PREM)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1028,7 +1022,7 @@
         </is>
       </c>
       <c r="K6">
-        <v>-1.62</v>
+        <v>7.91</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1037,7 +1031,7 @@
         <v>-0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P6">
         <v>-0</v>
@@ -1046,67 +1040,79 @@
         <v>-0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.316</v>
+        <v>0.037</v>
       </c>
       <c r="V6">
-        <v>0.04130718954248366</v>
+        <v>0.002936507936507936</v>
       </c>
       <c r="W6">
-        <v>-0.1712473572938689</v>
+        <v>0.4598837209302326</v>
       </c>
       <c r="X6">
-        <v>0.1353927614978646</v>
+        <v>0.08139605018723281</v>
       </c>
       <c r="Y6">
-        <v>-0.3066401187917335</v>
+        <v>0.3784876707429998</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>-0.2155172413793103</v>
+        <v>-0.08531710518465485</v>
       </c>
       <c r="AB6">
-        <v>0.1353927614978646</v>
+        <v>0.07936440698839346</v>
       </c>
       <c r="AC6">
-        <v>-0.3509100028771749</v>
+        <v>-0.1646815121730483</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AG6">
-        <v>-0.316</v>
+        <v>1.223</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="AJ6">
-        <v>-0.04308699209162803</v>
+        <v>0.08847572885770094</v>
       </c>
       <c r="AK6">
-        <v>-0.03072734344612991</v>
+        <v>0.1846595198550506</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>0.044</v>
+      </c>
+      <c r="AN6">
+        <v>-0.3529411764705883</v>
+      </c>
+      <c r="AO6">
+        <v>-32.5</v>
+      </c>
+      <c r="AP6">
+        <v>-0.342577030812325</v>
+      </c>
+      <c r="AQ6">
+        <v>-32.5</v>
       </c>
     </row>
     <row r="7">
@@ -1117,7 +1123,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Premier African Minerals Limited (AIM:PREM)</t>
+          <t>Phoenix Copper Limited (LSE:PXC)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1125,23 +1131,8 @@
           <t>Metals &amp; Mining</t>
         </is>
       </c>
-      <c r="G7">
-        <v>-1380</v>
-      </c>
-      <c r="H7">
-        <v>-1380</v>
-      </c>
-      <c r="I7">
-        <v>-3065</v>
-      </c>
-      <c r="J7">
-        <v>-3065</v>
-      </c>
       <c r="K7">
-        <v>-15.3</v>
-      </c>
-      <c r="L7">
-        <v>-7650</v>
+        <v>-1.02</v>
       </c>
       <c r="M7">
         <v>-0</v>
@@ -1165,73 +1156,67 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.19</v>
+        <v>2.05</v>
       </c>
       <c r="V7">
-        <v>0.09370078740157481</v>
+        <v>0.06011730205278592</v>
       </c>
       <c r="W7">
-        <v>-0.8010471204188482</v>
+        <v>-0.09807692307692308</v>
       </c>
       <c r="X7">
-        <v>0.1406228566956291</v>
+        <v>0.07737508688094547</v>
       </c>
       <c r="Y7">
-        <v>-0.9416699771144773</v>
+        <v>-0.1754520099578685</v>
       </c>
       <c r="Z7">
-        <v>0.0001001452105553052</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>-0.3069450703520104</v>
+        <v>-0.09708449028163427</v>
       </c>
       <c r="AB7">
-        <v>0.1363394000631696</v>
+        <v>0.07664805266163008</v>
       </c>
       <c r="AC7">
-        <v>-0.44328447041518</v>
+        <v>-0.1737325429432643</v>
       </c>
       <c r="AD7">
-        <v>0.751</v>
+        <v>0.929</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.751</v>
+        <v>0.929</v>
       </c>
       <c r="AG7">
-        <v>-0.4389999999999999</v>
+        <v>-1.121</v>
       </c>
       <c r="AH7">
-        <v>0.05583228012787154</v>
+        <v>0.02652088269719375</v>
       </c>
       <c r="AI7">
-        <v>0.09191041488189941</v>
+        <v>0.06438422621110264</v>
       </c>
       <c r="AJ7">
-        <v>-0.03580458363918114</v>
+        <v>-0.03399132781466994</v>
       </c>
       <c r="AK7">
-        <v>-0.06288497349949863</v>
+        <v>-0.09055658776960981</v>
       </c>
       <c r="AL7">
-        <v>0.046</v>
+        <v>0.052</v>
       </c>
       <c r="AM7">
-        <v>0.046</v>
-      </c>
-      <c r="AN7">
-        <v>-0.2399361022364217</v>
+        <v>0.052</v>
       </c>
       <c r="AO7">
-        <v>-133.2608695652174</v>
-      </c>
-      <c r="AP7">
-        <v>0.1402555910543131</v>
+        <v>-18.82692307692308</v>
       </c>
       <c r="AQ7">
-        <v>-133.2608695652174</v>
+        <v>-18.82692307692308</v>
       </c>
     </row>
   </sheetData>
